--- a/TestNG/TestNGEjercicioWeb/Data/data.xlsx
+++ b/TestNG/TestNGEjercicioWeb/Data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miltonnino\eclipse-workspace-testNG\TestNGEjercicioCompleto\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miltonnino\eclipse-workspace-testNG\TestNGEjercicioWeb\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E81F5-B9B3-4A33-9823-A7BE324B23DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3900675F-EAEF-4AC6-9CB9-662607C57805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -555,7 +555,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -624,7 +624,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -870,7 +870,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
